--- a/data/trans_orig/P16A13-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A13-Dificultad-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1879,7 +1879,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
+          <t>Población según si ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3204,7 +3204,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4529,7 +4529,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
+          <t>Población según si ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A13-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A13-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>19406</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12334</v>
+        <v>12758</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30580</v>
+        <v>29088</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0332212857173142</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02111556021842056</v>
+        <v>0.02184022207698942</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05235062628888369</v>
+        <v>0.04979668741181582</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>53</v>
@@ -765,19 +765,19 @@
         <v>52792</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>40903</v>
+        <v>40425</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>68063</v>
+        <v>67855</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05723794834071316</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04434701167819029</v>
+        <v>0.04382941323463252</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0737948749979896</v>
+        <v>0.07356907206520386</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>73</v>
@@ -786,19 +786,19 @@
         <v>72198</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>57011</v>
+        <v>57593</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>91417</v>
+        <v>90860</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04792539328364183</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03784387234517052</v>
+        <v>0.0382302144874974</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06068244662541549</v>
+        <v>0.06031302270285102</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>564735</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>553561</v>
+        <v>555053</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>571807</v>
+        <v>571383</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9667787142826858</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9476493737111163</v>
+        <v>0.950203312588184</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9788844397815795</v>
+        <v>0.9781597779230106</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>832</v>
@@ -836,19 +836,19 @@
         <v>869541</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>854270</v>
+        <v>854478</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>881430</v>
+        <v>881908</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9427620516592868</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9262051250020104</v>
+        <v>0.9264309279347962</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9556529883218097</v>
+        <v>0.9561705867653675</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1386</v>
@@ -857,19 +857,19 @@
         <v>1434276</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1415057</v>
+        <v>1415614</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1449463</v>
+        <v>1448881</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9520746067163581</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9393175533745846</v>
+        <v>0.9396869772971493</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9621561276548296</v>
+        <v>0.9617697855125027</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>33300</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23381</v>
+        <v>22974</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46885</v>
+        <v>47622</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03089375185963541</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.021690997155521</v>
+        <v>0.02131411065474344</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04349716958509582</v>
+        <v>0.0441806036460068</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -982,19 +982,19 @@
         <v>31212</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21924</v>
+        <v>21855</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44669</v>
+        <v>44116</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02951342617092931</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02073155811506485</v>
+        <v>0.02066560573173543</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04223908527577482</v>
+        <v>0.04171606561718685</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>63</v>
@@ -1003,19 +1003,19 @@
         <v>64512</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>50751</v>
+        <v>50593</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>82411</v>
+        <v>83530</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03021016800020668</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02376605581274053</v>
+        <v>0.02369238806281707</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03859203892333108</v>
+        <v>0.03911632365407765</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1044594</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1031009</v>
+        <v>1030272</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1054513</v>
+        <v>1054920</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9691062481403646</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9565028304149042</v>
+        <v>0.9558193963539932</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.978309002844479</v>
+        <v>0.9786858893452566</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>997</v>
@@ -1053,19 +1053,19 @@
         <v>1026326</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1012869</v>
+        <v>1013422</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1035614</v>
+        <v>1035683</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9704865738290707</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9577609147242251</v>
+        <v>0.9582839343828131</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9792684418849349</v>
+        <v>0.9793343942682645</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2020</v>
@@ -1074,19 +1074,19 @@
         <v>2070920</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2053021</v>
+        <v>2051902</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2084681</v>
+        <v>2084839</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9697898319997933</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9614079610766689</v>
+        <v>0.9608836763459223</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9762339441872594</v>
+        <v>0.9763076119371829</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>24347</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15132</v>
+        <v>16321</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36378</v>
+        <v>36213</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02172730503833933</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01350409176451973</v>
+        <v>0.01456517023825061</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03246406141371388</v>
+        <v>0.03231626482964356</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -1199,19 +1199,19 @@
         <v>27877</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18771</v>
+        <v>17976</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39576</v>
+        <v>38583</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02804731507924826</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01888516738376042</v>
+        <v>0.01808559796051998</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03981694489981874</v>
+        <v>0.03881820765867918</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>52</v>
@@ -1220,19 +1220,19 @@
         <v>52224</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39634</v>
+        <v>40275</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>67456</v>
+        <v>69605</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02469806011453556</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01874375331025702</v>
+        <v>0.01904692578034078</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03190143751530082</v>
+        <v>0.03291754523738688</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1096229</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1084198</v>
+        <v>1084363</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1105444</v>
+        <v>1104255</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9782726949616607</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9675359385862861</v>
+        <v>0.9676837351703564</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9864959082354802</v>
+        <v>0.9854348297617493</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>953</v>
@@ -1270,19 +1270,19 @@
         <v>966063</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>954364</v>
+        <v>955357</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>975169</v>
+        <v>975964</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9719526849207517</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9601830551001812</v>
+        <v>0.9611817923413207</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9811148326162396</v>
+        <v>0.98191440203948</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2032</v>
@@ -1291,19 +1291,19 @@
         <v>2062292</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2047060</v>
+        <v>2044911</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2074882</v>
+        <v>2074241</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9753019398854644</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9680985624846991</v>
+        <v>0.967082454762613</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.981256246689743</v>
+        <v>0.9809530742196592</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>8765</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4025</v>
+        <v>4553</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16476</v>
+        <v>16449</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0195989765567641</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008999561515160447</v>
+        <v>0.01018001023752306</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03684173951272588</v>
+        <v>0.0367811988688748</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1416,19 +1416,19 @@
         <v>6603</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2616</v>
+        <v>2647</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14028</v>
+        <v>14280</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01935326469194279</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007668646074304548</v>
+        <v>0.007758955318264233</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04111749277375808</v>
+        <v>0.04185887014629134</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -1437,19 +1437,19 @@
         <v>15367</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8681</v>
+        <v>9483</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24365</v>
+        <v>25890</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01949264589686379</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01101160657599603</v>
+        <v>0.01202824167835799</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03090648938910656</v>
+        <v>0.03284091819629185</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>438435</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>430724</v>
+        <v>430751</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>443175</v>
+        <v>442647</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9804010234432359</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9631582604872737</v>
+        <v>0.9632188011311252</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9910004384848395</v>
+        <v>0.9898199897624771</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>333</v>
@@ -1487,19 +1487,19 @@
         <v>334555</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>327130</v>
+        <v>326878</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>338542</v>
+        <v>338511</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9806467353080572</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9588825072262419</v>
+        <v>0.9581411298537086</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9923313539256954</v>
+        <v>0.9922410446817358</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>760</v>
@@ -1508,19 +1508,19 @@
         <v>772991</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>763993</v>
+        <v>762468</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>779677</v>
+        <v>778875</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9805073541031362</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9690935106108934</v>
+        <v>0.9671590818037081</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.988988393424004</v>
+        <v>0.987971758321642</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>85818</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>69378</v>
+        <v>68571</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>106376</v>
+        <v>106374</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0265705539854669</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02148058779168017</v>
+        <v>0.021230760597586</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0329357997955509</v>
+        <v>0.03293496998499414</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>119</v>
@@ -1633,19 +1633,19 @@
         <v>118484</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>99466</v>
+        <v>99368</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>139572</v>
+        <v>141192</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03574208140712861</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03000519333610313</v>
+        <v>0.02997568162878331</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04210364467973399</v>
+        <v>0.04259226187867528</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>203</v>
@@ -1654,19 +1654,19 @@
         <v>204302</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>175131</v>
+        <v>178637</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>230905</v>
+        <v>235777</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03121598556455995</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02675881681780589</v>
+        <v>0.02729450554620363</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03528078816738946</v>
+        <v>0.03602519235594197</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3143993</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3123435</v>
+        <v>3123437</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3160433</v>
+        <v>3161240</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9734294460145331</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9670642002044491</v>
+        <v>0.9670650300150058</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9785194122083194</v>
+        <v>0.9787692394024132</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3115</v>
@@ -1704,19 +1704,19 @@
         <v>3196485</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3175397</v>
+        <v>3173777</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3215503</v>
+        <v>3215601</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9642579185928714</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9578963553202662</v>
+        <v>0.9574077381213247</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9699948066638969</v>
+        <v>0.9700243183712168</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6198</v>
@@ -1725,19 +1725,19 @@
         <v>6340478</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6313875</v>
+        <v>6309003</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6369649</v>
+        <v>6366143</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.96878401443544</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9647192118326104</v>
+        <v>0.963974807644058</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.973241183182194</v>
+        <v>0.9727054944537964</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>47173</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34497</v>
+        <v>33941</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>64955</v>
+        <v>62947</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04541400905499037</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03321073254610393</v>
+        <v>0.03267556301186332</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06253333938640207</v>
+        <v>0.06059971529889782</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>61</v>
@@ -2090,19 +2090,19 @@
         <v>65446</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>51111</v>
+        <v>49514</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>81959</v>
+        <v>83983</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05876327873169376</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04589221809037694</v>
+        <v>0.04445797254436756</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07359049308699074</v>
+        <v>0.07540792699984621</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>102</v>
@@ -2111,19 +2111,19 @@
         <v>112618</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>91618</v>
+        <v>91721</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>134704</v>
+        <v>135101</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05232118121695306</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04256471518755309</v>
+        <v>0.04261276233451133</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06258191604022414</v>
+        <v>0.06276628271011558</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>991554</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>973772</v>
+        <v>975780</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1004230</v>
+        <v>1004786</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9545859909450096</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9374666606135978</v>
+        <v>0.9394002847011022</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.966789267453896</v>
+        <v>0.9673244369881366</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>965</v>
@@ -2161,19 +2161,19 @@
         <v>1048270</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1031757</v>
+        <v>1029733</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1062605</v>
+        <v>1064202</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9412367212683063</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9264095069130094</v>
+        <v>0.9245920730001539</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9541077819096231</v>
+        <v>0.9555420274556325</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1898</v>
@@ -2182,19 +2182,19 @@
         <v>2039824</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2017738</v>
+        <v>2017341</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2060824</v>
+        <v>2060721</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9476788187830469</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9374180839597759</v>
+        <v>0.9372337172898845</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9574352848124469</v>
+        <v>0.9573872376654887</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>30944</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21099</v>
+        <v>21663</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45379</v>
+        <v>44113</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03175279125184405</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02165084200670961</v>
+        <v>0.0222287072175744</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04656521053153954</v>
+        <v>0.04526612633854647</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -2307,19 +2307,19 @@
         <v>49650</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36699</v>
+        <v>35150</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66333</v>
+        <v>65573</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04545963534284719</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03360149896261211</v>
+        <v>0.03218320173286927</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06073467894027049</v>
+        <v>0.06003900917614521</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>74</v>
@@ -2328,19 +2328,19 @@
         <v>80594</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>63012</v>
+        <v>65340</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>100794</v>
+        <v>101104</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03899634587201423</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03048894246334492</v>
+        <v>0.03161572725494387</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.048770273533861</v>
+        <v>0.04892047444086168</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>943585</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>929150</v>
+        <v>930416</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>953430</v>
+        <v>952866</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.968247208748156</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9534347894684605</v>
+        <v>0.9547338736614536</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9783491579932904</v>
+        <v>0.9777712927824256</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>973</v>
@@ -2378,19 +2378,19 @@
         <v>1042527</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1025844</v>
+        <v>1026604</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1055478</v>
+        <v>1057027</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9545403646571529</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9392653210597296</v>
+        <v>0.9399609908238556</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9663985010373879</v>
+        <v>0.9678167982671309</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1865</v>
@@ -2399,19 +2399,19 @@
         <v>1986113</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1965913</v>
+        <v>1965603</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2003695</v>
+        <v>2001367</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9610036541279857</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.951229726466139</v>
+        <v>0.9510795255591383</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9695110575366551</v>
+        <v>0.9683842727450561</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>34868</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24425</v>
+        <v>24233</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50278</v>
+        <v>48136</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0395366439532432</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02769563566029191</v>
+        <v>0.02747757444264754</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05700999440140734</v>
+        <v>0.05458189124279992</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -2524,19 +2524,19 @@
         <v>43576</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31889</v>
+        <v>31926</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59530</v>
+        <v>57987</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04981489218635366</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03645491008783688</v>
+        <v>0.03649655786870386</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06805275516770162</v>
+        <v>0.0662885914655959</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>73</v>
@@ -2545,19 +2545,19 @@
         <v>78444</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>63046</v>
+        <v>62104</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>98485</v>
+        <v>98486</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0446548488125893</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03588919875945722</v>
+        <v>0.03535293979112188</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05606328229431271</v>
+        <v>0.05606375573420925</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>847044</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>831634</v>
+        <v>833776</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>857487</v>
+        <v>857679</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9604633560467568</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9429900055985927</v>
+        <v>0.9454181087572001</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9723043643397081</v>
+        <v>0.9725224255573525</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>779</v>
@@ -2595,19 +2595,19 @@
         <v>831186</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>815232</v>
+        <v>816775</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>842873</v>
+        <v>842836</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9501851078136463</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9319472448322983</v>
+        <v>0.9337114085344043</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.963545089912163</v>
+        <v>0.9635034421312962</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1575</v>
@@ -2616,19 +2616,19 @@
         <v>1678230</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1658189</v>
+        <v>1658188</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1693628</v>
+        <v>1694570</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9553451511874107</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9439367177056873</v>
+        <v>0.9439362442657907</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9641108012405429</v>
+        <v>0.9646470602088781</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>27279</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15893</v>
+        <v>16863</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41300</v>
+        <v>39260</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05422980274301856</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03159404983519137</v>
+        <v>0.0335240790770512</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08210308619865256</v>
+        <v>0.07804823993607879</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -2741,19 +2741,19 @@
         <v>30315</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20234</v>
+        <v>20437</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43571</v>
+        <v>44318</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06723662646170959</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04487862523721665</v>
+        <v>0.04532874329102406</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09663773347308616</v>
+        <v>0.09829389595597549</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>47</v>
@@ -2762,19 +2762,19 @@
         <v>57594</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>43476</v>
+        <v>42203</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>77013</v>
+        <v>76151</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06037763724537134</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04557748166476985</v>
+        <v>0.04424295455566317</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08073523642772593</v>
+        <v>0.07983149311459614</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>475744</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>461723</v>
+        <v>463763</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>487130</v>
+        <v>486160</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9457701972569814</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9178969138013472</v>
+        <v>0.921951760063921</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9684059501648086</v>
+        <v>0.9664759209229488</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>384</v>
@@ -2812,19 +2812,19 @@
         <v>420553</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>407297</v>
+        <v>406550</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>430634</v>
+        <v>430431</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9327633735382904</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9033622665269139</v>
+        <v>0.9017061040440245</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9551213747627836</v>
+        <v>0.954671256708976</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>824</v>
@@ -2833,19 +2833,19 @@
         <v>896297</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>876878</v>
+        <v>877740</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>910415</v>
+        <v>911688</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9396223627546286</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.919264763572274</v>
+        <v>0.9201685068854039</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9544225183352302</v>
+        <v>0.9557570454443368</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>140263</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>117060</v>
+        <v>116957</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>167686</v>
+        <v>165342</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04127591444571987</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03444761274939732</v>
+        <v>0.0344175190934558</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04934568187568703</v>
+        <v>0.04865591255452702</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>173</v>
@@ -2958,19 +2958,19 @@
         <v>188987</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>164149</v>
+        <v>163069</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>218998</v>
+        <v>217945</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05351418911809702</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04648105518651281</v>
+        <v>0.0461753259911064</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06201238051186935</v>
+        <v>0.06171408085177277</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>296</v>
@@ -2979,19 +2979,19 @@
         <v>329250</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>289253</v>
+        <v>293379</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>367945</v>
+        <v>366454</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04751278728742369</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04174094659088234</v>
+        <v>0.04233631978750278</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05309676317082807</v>
+        <v>0.05288160237390163</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3257928</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3230505</v>
+        <v>3232849</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3281131</v>
+        <v>3281234</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9587240855542801</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.950654318124313</v>
+        <v>0.9513440874454731</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9655523872506028</v>
+        <v>0.9655824809065444</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3101</v>
@@ -3029,19 +3029,19 @@
         <v>3342535</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3312524</v>
+        <v>3313577</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3367373</v>
+        <v>3368453</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.946485810881903</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9379876194881315</v>
+        <v>0.9382859191482272</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9535189448134873</v>
+        <v>0.9538246740088939</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6162</v>
@@ -3050,19 +3050,19 @@
         <v>6600463</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6561768</v>
+        <v>6563259</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6640460</v>
+        <v>6636334</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9524872127125763</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9469032368291721</v>
+        <v>0.9471183976260985</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9582590534091178</v>
+        <v>0.9576636802124974</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>33271</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22155</v>
+        <v>22832</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47217</v>
+        <v>47150</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02949560598078576</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01964079994494128</v>
+        <v>0.02024076765317155</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04185915468461712</v>
+        <v>0.04179951572690849</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>45</v>
@@ -3415,19 +3415,19 @@
         <v>49760</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38404</v>
+        <v>35545</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>67077</v>
+        <v>64416</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03950607659443085</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03049006886051817</v>
+        <v>0.02822013476589556</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05325461734184243</v>
+        <v>0.0511419595184673</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>75</v>
@@ -3436,19 +3436,19 @@
         <v>83031</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>64530</v>
+        <v>65968</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>101974</v>
+        <v>104465</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03477664881743488</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0270277771951212</v>
+        <v>0.0276300000086116</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04271051722105784</v>
+        <v>0.04375405424161591</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1094726</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1080780</v>
+        <v>1080847</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1105842</v>
+        <v>1105165</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9705043940192143</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9581408453153833</v>
+        <v>0.9582004842730912</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9803592000550587</v>
+        <v>0.9797592323468283</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1143</v>
@@ -3486,19 +3486,19 @@
         <v>1209801</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1192484</v>
+        <v>1195145</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1221157</v>
+        <v>1224016</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9604939234055692</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9467453826581576</v>
+        <v>0.9488580404815327</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9695099311394818</v>
+        <v>0.9717798652341044</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2179</v>
@@ -3507,19 +3507,19 @@
         <v>2304527</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2285584</v>
+        <v>2283093</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2323028</v>
+        <v>2321590</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9652233511825651</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9572894827789421</v>
+        <v>0.9562459457583834</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9729722228048787</v>
+        <v>0.9723699999913884</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>25134</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16525</v>
+        <v>16205</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36214</v>
+        <v>36551</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02765551414691592</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01818286483646432</v>
+        <v>0.01783116967362188</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03984727751735784</v>
+        <v>0.04021839143609739</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -3632,19 +3632,19 @@
         <v>34661</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24254</v>
+        <v>23963</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46315</v>
+        <v>47879</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03443840100609535</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02409802121903144</v>
+        <v>0.02380916069307295</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04601717668769584</v>
+        <v>0.04757144077852669</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>56</v>
@@ -3653,19 +3653,19 @@
         <v>59795</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45270</v>
+        <v>43719</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>78048</v>
+        <v>76563</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03121986844883836</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02363598323091686</v>
+        <v>0.02282617461330803</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04074964628271623</v>
+        <v>0.03997451818799426</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>883691</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>872611</v>
+        <v>872274</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>892300</v>
+        <v>892620</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9723444858530841</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9601527224826425</v>
+        <v>0.9597816085639028</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9818171351635357</v>
+        <v>0.9821688303263783</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>920</v>
@@ -3703,19 +3703,19 @@
         <v>971814</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>960160</v>
+        <v>958596</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>982221</v>
+        <v>982512</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9655615989939046</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9539828233123042</v>
+        <v>0.9524285592214733</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9759019787809685</v>
+        <v>0.9761908393069271</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1776</v>
@@ -3724,19 +3724,19 @@
         <v>1855505</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1837252</v>
+        <v>1838737</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1870030</v>
+        <v>1871581</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9687801315511616</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9592503537172838</v>
+        <v>0.960025481812006</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9763640167690835</v>
+        <v>0.9771738253866921</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>29913</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19688</v>
+        <v>19699</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43208</v>
+        <v>44048</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03631286429793864</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02390059355438805</v>
+        <v>0.02391295012727518</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05245181510519439</v>
+        <v>0.05347237212137071</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -3849,19 +3849,19 @@
         <v>38184</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27050</v>
+        <v>26987</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>51984</v>
+        <v>53637</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04952085692544048</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03508195727294815</v>
+        <v>0.03500030764810307</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06741852670632313</v>
+        <v>0.06956308324514966</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>59</v>
@@ -3870,19 +3870,19 @@
         <v>68097</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>52244</v>
+        <v>52810</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>87338</v>
+        <v>86142</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04269863223148376</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03275843256037767</v>
+        <v>0.03311318317160981</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05476392200896311</v>
+        <v>0.05401389229445224</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>793846</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>780551</v>
+        <v>779711</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>804071</v>
+        <v>804060</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9636871357020613</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9475481848948055</v>
+        <v>0.9465276278786293</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.976099406445612</v>
+        <v>0.9760870498727249</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>695</v>
@@ -3920,19 +3920,19 @@
         <v>732875</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>719075</v>
+        <v>717422</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>744009</v>
+        <v>744072</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9504791430745595</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9325814732936768</v>
+        <v>0.9304369167548502</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9649180427270517</v>
+        <v>0.9649996923518969</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1456</v>
@@ -3941,19 +3941,19 @@
         <v>1526721</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1507480</v>
+        <v>1508676</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1542574</v>
+        <v>1542008</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9573013677685163</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9452360779910371</v>
+        <v>0.9459861077055478</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9672415674396223</v>
+        <v>0.9668868168283903</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>9730</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4899</v>
+        <v>4877</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16819</v>
+        <v>17629</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01920280670098418</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009668271683878203</v>
+        <v>0.009624055068542876</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0331932231333897</v>
+        <v>0.03479147288513897</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -4066,19 +4066,19 @@
         <v>19229</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10934</v>
+        <v>10699</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32710</v>
+        <v>32210</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03926718287506266</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02232736956765564</v>
+        <v>0.02184748241004975</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06679679225059963</v>
+        <v>0.06577563418445337</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -4087,19 +4087,19 @@
         <v>28959</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18382</v>
+        <v>18678</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43586</v>
+        <v>43654</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02906379741335255</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01844798759781548</v>
+        <v>0.01874565534748392</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04374359384314402</v>
+        <v>0.04381137981851056</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>496971</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>489882</v>
+        <v>489072</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>501802</v>
+        <v>501824</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9807971932990158</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9668067768666101</v>
+        <v>0.9652085271148613</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9903317283161217</v>
+        <v>0.9903759449314572</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>441</v>
@@ -4137,19 +4137,19 @@
         <v>470469</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>456988</v>
+        <v>457488</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>478764</v>
+        <v>478999</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9607328171249373</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9332032077494005</v>
+        <v>0.9342243658155461</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9776726304323443</v>
+        <v>0.9781525175899501</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>902</v>
@@ -4158,19 +4158,19 @@
         <v>967439</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>952812</v>
+        <v>952744</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>978016</v>
+        <v>977720</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9709362025866475</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.956256406156856</v>
+        <v>0.9561886201814896</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9815520124021845</v>
+        <v>0.9812543446525164</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>98048</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>80045</v>
+        <v>80966</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>121803</v>
+        <v>119487</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02911787964038487</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02377130380699572</v>
+        <v>0.02404490201605088</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03617245937835148</v>
+        <v>0.03548467574058216</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>123</v>
@@ -4283,19 +4283,19 @@
         <v>141834</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>116320</v>
+        <v>119961</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>168617</v>
+        <v>168799</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04021621427818321</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03298191480494209</v>
+        <v>0.03401417427222942</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04781039490529342</v>
+        <v>0.04786204477788773</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>214</v>
@@ -4304,19 +4304,19 @@
         <v>239882</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>206531</v>
+        <v>207823</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>272979</v>
+        <v>273681</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03479543957340715</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02995781237004604</v>
+        <v>0.03014517948210645</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03959623789125716</v>
+        <v>0.03969804811091605</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3269234</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3245479</v>
+        <v>3247795</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3287237</v>
+        <v>3286316</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9708821203596152</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9638275406216485</v>
+        <v>0.9645153242594173</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9762286961930042</v>
+        <v>0.9759550979839491</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3199</v>
@@ -4354,19 +4354,19 @@
         <v>3384958</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3358175</v>
+        <v>3357993</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3410472</v>
+        <v>3406831</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9597837857218168</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9521896050947065</v>
+        <v>0.9521379552221122</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9670180851950577</v>
+        <v>0.9659858257277704</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6313</v>
@@ -4375,19 +4375,19 @@
         <v>6654193</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6621096</v>
+        <v>6620394</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6687544</v>
+        <v>6686252</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9652045604265929</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.960403762108743</v>
+        <v>0.9603019518890843</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9700421876299542</v>
+        <v>0.9698548205178936</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>41572</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30363</v>
+        <v>31495</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54595</v>
+        <v>54875</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08335360733261378</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0608805049301282</v>
+        <v>0.063149239171694</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.109465205644051</v>
+        <v>0.1100277018040439</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>117</v>
@@ -4740,19 +4740,19 @@
         <v>67041</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55189</v>
+        <v>55813</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>79035</v>
+        <v>79484</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1075097483696419</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08850312400207104</v>
+        <v>0.08950346314735037</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1267443387310202</v>
+        <v>0.1274644224543608</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>166</v>
@@ -4761,19 +4761,19 @@
         <v>108613</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>92265</v>
+        <v>93347</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>127642</v>
+        <v>126697</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0967751788737746</v>
+        <v>0.09677517887377461</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08220909298231747</v>
+        <v>0.08317291099312318</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.113730398450374</v>
+        <v>0.1128886208969415</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>457167</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>444144</v>
+        <v>443864</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>468376</v>
+        <v>467244</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9166463926673863</v>
+        <v>0.9166463926673861</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.890534794355949</v>
+        <v>0.889972298195956</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9391194950698717</v>
+        <v>0.9368507608283061</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>744</v>
@@ -4811,19 +4811,19 @@
         <v>556539</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>544545</v>
+        <v>544096</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>568391</v>
+        <v>567767</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.892490251630358</v>
+        <v>0.8924902516303579</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8732556612689797</v>
+        <v>0.8725355775456392</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9114968759979291</v>
+        <v>0.9104965368526498</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1150</v>
@@ -4832,19 +4832,19 @@
         <v>1013707</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>994678</v>
+        <v>995623</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1030055</v>
+        <v>1028973</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9032248211262254</v>
+        <v>0.9032248211262253</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8862696015496263</v>
+        <v>0.8871113791030588</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9177909070176826</v>
+        <v>0.9168270890068769</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>45709</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35780</v>
+        <v>34559</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60429</v>
+        <v>58110</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.04760651548200648</v>
+        <v>0.04760651548200649</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03726518594902112</v>
+        <v>0.03599373993759129</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06293750495402631</v>
+        <v>0.06052298463351394</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>186</v>
@@ -4957,19 +4957,19 @@
         <v>96453</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>82945</v>
+        <v>81713</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>110367</v>
+        <v>110935</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08648612503833214</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07437365041826051</v>
+        <v>0.07326895790131499</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09896183237293761</v>
+        <v>0.09947132882665495</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>252</v>
@@ -4978,19 +4978,19 @@
         <v>142162</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>125316</v>
+        <v>124345</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>160279</v>
+        <v>161661</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06849920833940722</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0603819130168294</v>
+        <v>0.05991442199828506</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07722842819393202</v>
+        <v>0.07789467007213911</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>914428</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>899708</v>
+        <v>902027</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>924357</v>
+        <v>925578</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9523934845179937</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9370624950459738</v>
+        <v>0.9394770153664862</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.962734814050979</v>
+        <v>0.9640062600624089</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1420</v>
@@ -5028,19 +5028,19 @@
         <v>1018793</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1004879</v>
+        <v>1004311</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1032301</v>
+        <v>1033533</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.913513874961668</v>
+        <v>0.9135138749616679</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9010381676270623</v>
+        <v>0.9005286711733451</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9256263495817395</v>
+        <v>0.9267310420986851</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2264</v>
@@ -5049,19 +5049,19 @@
         <v>1933221</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1915104</v>
+        <v>1913722</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1950067</v>
+        <v>1951038</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9315007916605927</v>
+        <v>0.9315007916605926</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9227715718060684</v>
+        <v>0.9221053299278611</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9396180869831707</v>
+        <v>0.9400855780017152</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>64935</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>52594</v>
+        <v>51181</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>82570</v>
+        <v>82043</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06205049038604851</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0502583149747562</v>
+        <v>0.04890823603307357</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07890260386823715</v>
+        <v>0.07839865044221517</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>141</v>
@@ -5174,19 +5174,19 @@
         <v>73982</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>63124</v>
+        <v>61719</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>89699</v>
+        <v>88323</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.07061738744567345</v>
+        <v>0.07061738744567346</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06025328957041141</v>
+        <v>0.05891240653350938</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08561948281890973</v>
+        <v>0.08430680305236865</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>226</v>
@@ -5195,19 +5195,19 @@
         <v>138916</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>122099</v>
+        <v>119867</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>162333</v>
+        <v>160204</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06633631647559193</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05830564547038631</v>
+        <v>0.0572395721169646</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07751822384909074</v>
+        <v>0.07650199303233199</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>981544</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>963909</v>
+        <v>964436</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>993885</v>
+        <v>995298</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9379495096139515</v>
+        <v>0.9379495096139516</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9210973961317629</v>
+        <v>0.9216013495577845</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9497416850252437</v>
+        <v>0.9510917639669262</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1375</v>
@@ -5245,19 +5245,19 @@
         <v>973660</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>957943</v>
+        <v>959319</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>984518</v>
+        <v>985923</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9293826125543264</v>
+        <v>0.9293826125543266</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9143805171810891</v>
+        <v>0.9156931969476313</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9397467104295885</v>
+        <v>0.9410875934664907</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2319</v>
@@ -5266,19 +5266,19 @@
         <v>1955205</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1931788</v>
+        <v>1933917</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1972022</v>
+        <v>1974254</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.933663683524408</v>
+        <v>0.9336636835244082</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9224817761509092</v>
+        <v>0.9234980069676686</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9416943545296136</v>
+        <v>0.9427604278830356</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>65201</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51735</v>
+        <v>52997</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>79715</v>
+        <v>79734</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06680938721964143</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05301051978626641</v>
+        <v>0.05430365055691598</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08168158723622336</v>
+        <v>0.08170101679125957</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>143</v>
@@ -5391,19 +5391,19 @@
         <v>70112</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59410</v>
+        <v>59457</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>82761</v>
+        <v>83903</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07716173854059591</v>
+        <v>0.07716173854059589</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06538373854882081</v>
+        <v>0.06543473973143765</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09108200125965497</v>
+        <v>0.09233859063180726</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>233</v>
@@ -5412,19 +5412,19 @@
         <v>135314</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>118488</v>
+        <v>117521</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>154905</v>
+        <v>155404</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07180075170421552</v>
+        <v>0.0718007517042155</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.062872764647857</v>
+        <v>0.06235970411609599</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0821964886144972</v>
+        <v>0.08246143787281161</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>910728</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>896214</v>
+        <v>896195</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>924194</v>
+        <v>922932</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9331906127803585</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9183184127637768</v>
+        <v>0.9182989832087405</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9469894802137337</v>
+        <v>0.9456963494430841</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1178</v>
@@ -5462,19 +5462,19 @@
         <v>838530</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>825881</v>
+        <v>824739</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>849232</v>
+        <v>849185</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9228382614594043</v>
+        <v>0.9228382614594041</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9089179987403447</v>
+        <v>0.9076614093681927</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.934616261451179</v>
+        <v>0.9345652602685623</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2035</v>
@@ -5483,19 +5483,19 @@
         <v>1749257</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1729666</v>
+        <v>1729167</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1766083</v>
+        <v>1767050</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9281992482957845</v>
+        <v>0.9281992482957844</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9178035113855025</v>
+        <v>0.9175385621271878</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9371272353521423</v>
+        <v>0.9376402958839035</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>217416</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>193109</v>
+        <v>193460</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>249068</v>
+        <v>243137</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.06245288733049312</v>
+        <v>0.06245288733049311</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05547063883225207</v>
+        <v>0.05557153175480841</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07154473365003623</v>
+        <v>0.06984116140430349</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>587</v>
@@ -5608,19 +5608,19 @@
         <v>307588</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>282800</v>
+        <v>281461</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>330481</v>
+        <v>333130</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.08324201010959083</v>
+        <v>0.08324201010959084</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07653346299015634</v>
+        <v>0.07617131066088378</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08943746732446878</v>
+        <v>0.09015433426343339</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>877</v>
@@ -5629,19 +5629,19 @@
         <v>525005</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>489722</v>
+        <v>491739</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>564429</v>
+        <v>564676</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.07315716200219062</v>
+        <v>0.07315716200219063</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06824060231304432</v>
+        <v>0.06852174549565872</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07865076634885733</v>
+        <v>0.07868518840237422</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3263868</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3232216</v>
+        <v>3238147</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3288175</v>
+        <v>3287824</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9375471126695069</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9284552663499637</v>
+        <v>0.9301588385956965</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9445293611677475</v>
+        <v>0.9444284682451912</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4717</v>
@@ -5679,19 +5679,19 @@
         <v>3387522</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3364629</v>
+        <v>3361980</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3412310</v>
+        <v>3413649</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9167579898904091</v>
+        <v>0.9167579898904092</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9105625326755316</v>
+        <v>0.9098456657365664</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9234665370098438</v>
+        <v>0.9238286893391163</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7768</v>
@@ -5700,19 +5700,19 @@
         <v>6651390</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6611966</v>
+        <v>6611719</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6686673</v>
+        <v>6684656</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9268428379978093</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9213492336511427</v>
+        <v>0.9213148115976261</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9317593976869556</v>
+        <v>0.9314782545043412</v>
       </c>
     </row>
     <row r="18">
